--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2416.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2416.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.039322161286362</v>
+        <v>1.34128212928772</v>
       </c>
       <c r="B1">
-        <v>2.114395474521193</v>
+        <v>1.600281238555908</v>
       </c>
       <c r="C1">
-        <v>9.477924502730895</v>
+        <v>4.056238174438477</v>
       </c>
       <c r="D1">
-        <v>1.995039712137493</v>
+        <v>3.20220422744751</v>
       </c>
       <c r="E1">
-        <v>0.9977129077658818</v>
+        <v>1.098598480224609</v>
       </c>
     </row>
   </sheetData>
